--- a/resources/CotyURL.xlsx
+++ b/resources/CotyURL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="3015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9435" windowHeight="2925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="urlDetails" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">urlDetails!$A$1:$E$99</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:C8"/>
+  <oleSize ref="A1:C7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
